--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilien/Dropbox/CREST/Projets en cours/Etienne Ollion Metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilien/Dropbox/CREST/Projets en cours/Etienne Ollion Metrics/benchmarkllm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E84FF-F7CB-484D-9D58-7ED8745B9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7A1EB-A24F-8C4D-BECF-EDAB87FDFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>TestSet200_v2_plus_blinded_70B_JSON_noCoT_0SHOT</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,6 +465,22 @@
         <v>45597</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilien/Dropbox/CREST/Projets en cours/Etienne Ollion Metrics/benchmarkllm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7A1EB-A24F-8C4D-BECF-EDAB87FDFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E830E4FE-2911-A74D-AE78-B9BC6B3BFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -49,23 +54,33 @@
     <t>TestSet200_v2_plus_blinded_70B_JSON_noCoT_0SHOT</t>
   </si>
   <si>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
+  </si>
+  <si>
     <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_noCoT_0SHOT_noSYSTEM</t>
+  </si>
+  <si>
+    <t>regex_TestSet200_v2_plus_blinded_processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,15 +103,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -109,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -119,44 +139,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,14 +203,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -217,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -228,175 +284,171 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -465,23 +517,40 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>45603</v>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45618</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilien/Dropbox/CREST/Projets en cours/Etienne Ollion Metrics/benchmarkllm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilien/Dropbox/CREST/Projets en cours/Etienne Ollion Metrics/benchmarkllm_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E830E4FE-2911-A74D-AE78-B9BC6B3BFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6EF1C-C714-1B4B-9EBA-D99211D4C149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25040" windowHeight="12740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_0SHOT</t>
-  </si>
-  <si>
     <t>TestSet200_v2_plus_blinded_8B_noJSON_yesCoT_0SHOT</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_0SHOT</t>
-  </si>
-  <si>
     <t>TestSet200_v2_plus_blinded_70B_noJSON_yesCoT_0SHOT</t>
   </si>
   <si>
@@ -54,16 +48,22 @@
     <t>TestSet200_v2_plus_blinded_70B_JSON_noCoT_0SHOT</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
-  </si>
-  <si>
-    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT</t>
-  </si>
-  <si>
     <t>TestSet200_v2_plus_blinded_8B_JSON_noCoT_0SHOT_noSYSTEM</t>
   </si>
   <si>
     <t>regex_TestSet200_v2_plus_blinded_processed</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_0SHOT_n</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_0SHOT_n</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT_n</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT_n</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>45597</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>45597</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>45597</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45597</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>45597</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>45597</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>45606</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>45606</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>45608</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4">
         <v>45618</v>
